--- a/result/TrailATR/summary_CL_M30_2020-2024_0.xlsx
+++ b/result/TrailATR/summary_CL_M30_2020-2024_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,10 +532,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -554,54 +554,54 @@
         <v>2024</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="K2" t="n">
-        <v>-816.6450000000008</v>
+        <v>-599.9850000000022</v>
       </c>
       <c r="L2" t="n">
-        <v>-408.8340000000004</v>
+        <v>-300.1600000000012</v>
       </c>
       <c r="M2" t="n">
-        <v>3233</v>
+        <v>3615</v>
       </c>
       <c r="N2" t="n">
-        <v>-407.8110000000004</v>
+        <v>-299.8250000000011</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.906999999999996</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>12.164</v>
+        <v>17.61800000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1261401175378906</v>
+        <v>-0.08293914246196434</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7002197948259652</v>
+        <v>0.9014084821108546</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.2100000000000009</v>
+        <v>-0.2299999999999969</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1150634085988246</v>
+        <v>0.1402489626556017</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -620,54 +620,54 @@
         <v>2024</v>
       </c>
       <c r="G3" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="K3" t="n">
-        <v>-874.2340000000005</v>
+        <v>-600.3199999999988</v>
       </c>
       <c r="L3" t="n">
-        <v>-437.1170000000002</v>
+        <v>-300.1599999999994</v>
       </c>
       <c r="M3" t="n">
-        <v>3348</v>
+        <v>2736</v>
       </c>
       <c r="N3" t="n">
-        <v>-437.1170000000002</v>
+        <v>-300.1599999999994</v>
       </c>
       <c r="O3" t="n">
-        <v>-6.670000000000016</v>
+        <v>-3.219999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>16.16</v>
+        <v>13.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.1305606332138591</v>
+        <v>-0.1097076023391811</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6725642860310986</v>
+        <v>0.8526721962741191</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.2064999999999984</v>
+        <v>-0.230000000000004</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1412783751493429</v>
+        <v>0.1140350877192982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -686,54 +686,54 @@
         <v>2024</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J4" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="K4" t="n">
-        <v>-903.4859999999994</v>
+        <v>-688.7139999999986</v>
       </c>
       <c r="L4" t="n">
-        <v>-451.7429999999997</v>
+        <v>-344.3569999999993</v>
       </c>
       <c r="M4" t="n">
-        <v>3175</v>
+        <v>2767</v>
       </c>
       <c r="N4" t="n">
-        <v>-451.7429999999997</v>
+        <v>-344.3569999999993</v>
       </c>
       <c r="O4" t="n">
-        <v>-3.435000000000002</v>
+        <v>-2.805999999999997</v>
       </c>
       <c r="P4" t="n">
-        <v>9.370999999999995</v>
+        <v>11.49900000000001</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.1422812598425196</v>
+        <v>-0.1244513913986264</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6081900324229017</v>
+        <v>0.7509463363975815</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.1999999999999957</v>
+        <v>-0.2199999999999989</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1026771653543307</v>
+        <v>0.09974701843151428</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -752,54 +752,54 @@
         <v>2024</v>
       </c>
       <c r="G5" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
         <v>3.600000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="K5" t="n">
-        <v>-904.5440000000015</v>
+        <v>-715.2580000000019</v>
       </c>
       <c r="L5" t="n">
-        <v>-452.2720000000007</v>
+        <v>-357.6290000000009</v>
       </c>
       <c r="M5" t="n">
-        <v>2829</v>
+        <v>2893</v>
       </c>
       <c r="N5" t="n">
-        <v>-452.2720000000007</v>
+        <v>-357.6290000000009</v>
       </c>
       <c r="O5" t="n">
-        <v>-2.819999999999993</v>
+        <v>-3.219999999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>10.123</v>
+        <v>13.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1598699186991873</v>
+        <v>-0.1236187348772903</v>
       </c>
       <c r="R5" t="n">
-        <v>0.650656725674905</v>
+        <v>0.8204077452482905</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.1799999999999926</v>
+        <v>-0.2199999999999989</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05372923294450336</v>
+        <v>0.1043899066712755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -818,54 +818,54 @@
         <v>2024</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>2.600000000000001</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J6" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="K6" t="n">
-        <v>-937.2520000000004</v>
+        <v>-721.5899999999976</v>
       </c>
       <c r="L6" t="n">
-        <v>-468.6260000000002</v>
+        <v>-360.7949999999988</v>
       </c>
       <c r="M6" t="n">
-        <v>3361</v>
+        <v>2991</v>
       </c>
       <c r="N6" t="n">
-        <v>-468.6260000000002</v>
+        <v>-360.7949999999988</v>
       </c>
       <c r="O6" t="n">
-        <v>-3.219999999999999</v>
+        <v>-6.554999999999993</v>
       </c>
       <c r="P6" t="n">
-        <v>8.045000000000002</v>
+        <v>13.59100000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1394305266289795</v>
+        <v>-0.1206268806419254</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6258762859133268</v>
+        <v>0.8372714032744435</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.1940000000000026</v>
+        <v>-0.2340000000000089</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1005653079440643</v>
+        <v>0.1123370110330993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -884,54 +884,54 @@
         <v>2024</v>
       </c>
       <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I7" t="n">
         <v>55</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.600000000000001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
       <c r="J7" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="K7" t="n">
-        <v>-952.222999999997</v>
+        <v>-727.8809999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>-476.3309999999985</v>
+        <v>-364.957</v>
       </c>
       <c r="M7" t="n">
-        <v>3013</v>
+        <v>3653</v>
       </c>
       <c r="N7" t="n">
-        <v>-475.8919999999985</v>
+        <v>-362.9239999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>-3.720000000000013</v>
+        <v>-3.906999999999996</v>
       </c>
       <c r="P7" t="n">
-        <v>9.132000000000005</v>
+        <v>14.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.1579462329903745</v>
+        <v>-0.09934957569121267</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6654732543611936</v>
+        <v>0.8062474024543396</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.2199999999999989</v>
+        <v>-0.2169999999999987</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1510122801194823</v>
+        <v>0.1333150834930194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -950,54 +950,54 @@
         <v>2024</v>
       </c>
       <c r="G8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="K8" t="n">
-        <v>-987.8600000000006</v>
+        <v>-728.3479999999986</v>
       </c>
       <c r="L8" t="n">
-        <v>-495.4530000000004</v>
+        <v>-364.1739999999993</v>
       </c>
       <c r="M8" t="n">
-        <v>4570</v>
+        <v>2582</v>
       </c>
       <c r="N8" t="n">
-        <v>-492.4070000000003</v>
+        <v>-364.1739999999993</v>
       </c>
       <c r="O8" t="n">
-        <v>-2.609999999999999</v>
+        <v>-3.219999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>14.271</v>
+        <v>11.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.1077477024070023</v>
+        <v>-0.1410433772269556</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7752866826436886</v>
+        <v>0.7355712558816967</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.2399999999999949</v>
+        <v>-0.1944999999999979</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1603938730853392</v>
+        <v>0.07358636715724244</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1016,54 +1016,54 @@
         <v>2024</v>
       </c>
       <c r="G9" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="K9" t="n">
-        <v>-1031.883999999999</v>
+        <v>-739.014000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>-515.9419999999996</v>
+        <v>-369.5070000000005</v>
       </c>
       <c r="M9" t="n">
-        <v>3062</v>
+        <v>2957</v>
       </c>
       <c r="N9" t="n">
-        <v>-515.9419999999996</v>
+        <v>-369.5070000000005</v>
       </c>
       <c r="O9" t="n">
-        <v>-2.59</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>10.465</v>
+        <v>14.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1684983670803395</v>
+        <v>-0.1249600946905649</v>
       </c>
       <c r="R9" t="n">
-        <v>0.591030242636742</v>
+        <v>0.8073935375104594</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.1700000000000017</v>
+        <v>-0.2169999999999987</v>
       </c>
       <c r="T9" t="n">
-        <v>0.04474199869366427</v>
+        <v>0.1034832600608725</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1085,51 +1085,51 @@
         <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="K10" t="n">
-        <v>-1040.308000000003</v>
+        <v>-762.8380000000002</v>
       </c>
       <c r="L10" t="n">
-        <v>-520.1540000000016</v>
+        <v>-381.4240000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>3125</v>
+        <v>3021</v>
       </c>
       <c r="N10" t="n">
-        <v>-520.1540000000016</v>
+        <v>-381.4140000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>-2.969999999999999</v>
+        <v>-3.906999999999996</v>
       </c>
       <c r="P10" t="n">
-        <v>7.460000000000008</v>
+        <v>14.55</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1664492800000005</v>
+        <v>-0.1262542204568024</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3752586347407367</v>
+        <v>0.8047401295985303</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.1400000000000006</v>
+        <v>-0.2309999999999945</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05856</v>
+        <v>0.1148626282687852</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1148,54 +1148,54 @@
         <v>2024</v>
       </c>
       <c r="G11" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="K11" t="n">
-        <v>-1050.400000000003</v>
+        <v>-770.8580000000035</v>
       </c>
       <c r="L11" t="n">
-        <v>-525.2000000000014</v>
+        <v>-385.7470000000018</v>
       </c>
       <c r="M11" t="n">
-        <v>3101</v>
+        <v>3277</v>
       </c>
       <c r="N11" t="n">
-        <v>-525.2000000000014</v>
+        <v>-385.1110000000017</v>
       </c>
       <c r="O11" t="n">
         <v>-2.609999999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>9.459999999999999</v>
+        <v>11.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1693647210577238</v>
+        <v>-0.1175193774794024</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4167166755114336</v>
+        <v>0.7059532480341654</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.1300000000000026</v>
+        <v>-0.210000000000008</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0199935504675911</v>
+        <v>0.1196216051266402</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1214,54 +1214,54 @@
         <v>2024</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H12" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="K12" t="n">
-        <v>-1078.664000000002</v>
+        <v>-773.1600000000014</v>
       </c>
       <c r="L12" t="n">
-        <v>-539.3320000000008</v>
+        <v>-386.5800000000007</v>
       </c>
       <c r="M12" t="n">
-        <v>3249</v>
+        <v>2843</v>
       </c>
       <c r="N12" t="n">
-        <v>-539.3320000000008</v>
+        <v>-386.5800000000007</v>
       </c>
       <c r="O12" t="n">
-        <v>-2.969999999999999</v>
+        <v>-3.219999999999999</v>
       </c>
       <c r="P12" t="n">
-        <v>8.180000000000007</v>
+        <v>13.73999999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.1659993844259775</v>
+        <v>-0.1359760816039398</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3812111435673448</v>
+        <v>0.798754713688318</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.1400000000000006</v>
+        <v>-0.2070000000000078</v>
       </c>
       <c r="T12" t="n">
-        <v>0.05878731917513081</v>
+        <v>0.09039746746394653</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B13" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1280,54 +1280,54 @@
         <v>2024</v>
       </c>
       <c r="G13" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H13" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J13" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="K13" t="n">
-        <v>-1129.596000000007</v>
+        <v>-787.4330000000023</v>
       </c>
       <c r="L13" t="n">
-        <v>-564.7980000000034</v>
+        <v>-394.3470000000012</v>
       </c>
       <c r="M13" t="n">
-        <v>3711</v>
+        <v>3499</v>
       </c>
       <c r="N13" t="n">
-        <v>-564.7980000000034</v>
+        <v>-393.086000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>-2.239999999999995</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>10.3</v>
+        <v>14.271</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.1521956345998392</v>
+        <v>-0.1123423835381541</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5101376785565561</v>
+        <v>0.7419004715948425</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.1599999999999966</v>
+        <v>-0.2000000000000028</v>
       </c>
       <c r="T13" t="n">
-        <v>0.09161950956615468</v>
+        <v>0.1088882537867962</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1346,54 +1346,54 @@
         <v>2024</v>
       </c>
       <c r="G14" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>2.600000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="J14" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="K14" t="n">
-        <v>-1439.423000000004</v>
+        <v>-809.3519999999996</v>
       </c>
       <c r="L14" t="n">
-        <v>-721.0780000000021</v>
+        <v>-404.6759999999998</v>
       </c>
       <c r="M14" t="n">
-        <v>5310</v>
+        <v>2857</v>
       </c>
       <c r="N14" t="n">
-        <v>-718.3450000000022</v>
+        <v>-404.6759999999998</v>
       </c>
       <c r="O14" t="n">
-        <v>-3.109999999999999</v>
+        <v>-2.59</v>
       </c>
       <c r="P14" t="n">
-        <v>14.96100000000001</v>
+        <v>10.43</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1352815442561209</v>
+        <v>-0.1416436821841091</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6859197712540722</v>
+        <v>0.7045107421560389</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.230000000000004</v>
+        <v>-0.2199999999999989</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1621468926553672</v>
+        <v>0.09695484774238712</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1415,51 +1415,51 @@
         <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="K15" t="n">
-        <v>-1464.251000000006</v>
+        <v>-816.5590000000012</v>
       </c>
       <c r="L15" t="n">
-        <v>-732.7100000000031</v>
+        <v>-409.0390000000006</v>
       </c>
       <c r="M15" t="n">
-        <v>4474</v>
+        <v>3957</v>
       </c>
       <c r="N15" t="n">
-        <v>-731.5410000000032</v>
+        <v>-407.5200000000007</v>
       </c>
       <c r="O15" t="n">
-        <v>-2.609999999999999</v>
+        <v>-6.554999999999993</v>
       </c>
       <c r="P15" t="n">
-        <v>14.19</v>
+        <v>16.88800000000001</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1635093875726427</v>
+        <v>-0.1029871114480669</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5167960150465754</v>
+        <v>0.8292493785361242</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.1580000000000013</v>
+        <v>-0.2210000000000036</v>
       </c>
       <c r="T15" t="n">
-        <v>0.05766651765757711</v>
+        <v>0.139246904220369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1478,54 +1478,54 @@
         <v>2024</v>
       </c>
       <c r="G16" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="I16" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="K16" t="n">
-        <v>-1500.977999999999</v>
+        <v>-816.6450000000008</v>
       </c>
       <c r="L16" t="n">
-        <v>-750.4889999999996</v>
+        <v>-408.8340000000004</v>
       </c>
       <c r="M16" t="n">
-        <v>4070</v>
+        <v>3233</v>
       </c>
       <c r="N16" t="n">
-        <v>-750.4889999999996</v>
+        <v>-407.8110000000004</v>
       </c>
       <c r="O16" t="n">
-        <v>-2.609999999999999</v>
+        <v>-3.906999999999996</v>
       </c>
       <c r="P16" t="n">
-        <v>6.198000000000008</v>
+        <v>12.164</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.1843953316953316</v>
+        <v>-0.1261401175378906</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4429523329498066</v>
+        <v>0.7002197948259652</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.1550000000000011</v>
+        <v>-0.2100000000000009</v>
       </c>
       <c r="T16" t="n">
-        <v>0.04201474201474201</v>
+        <v>0.1150634085988246</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B17" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1544,54 +1544,54 @@
         <v>2024</v>
       </c>
       <c r="G17" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="K17" t="n">
-        <v>-1595.140999999999</v>
+        <v>-840.789</v>
       </c>
       <c r="L17" t="n">
-        <v>-798.2509999999996</v>
+        <v>-422.211</v>
       </c>
       <c r="M17" t="n">
-        <v>5368</v>
+        <v>3530</v>
       </c>
       <c r="N17" t="n">
-        <v>-796.8899999999998</v>
+        <v>-418.578</v>
       </c>
       <c r="O17" t="n">
-        <v>-6.554999999999993</v>
+        <v>-2.805999999999997</v>
       </c>
       <c r="P17" t="n">
-        <v>12.39</v>
+        <v>14.54</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.1484519374068554</v>
+        <v>-0.1185773371104816</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5391778576875523</v>
+        <v>0.7848447285832894</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.1740000000000066</v>
+        <v>-0.2390000000000043</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1238822652757079</v>
+        <v>0.1521246458923513</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1610,54 +1610,54 @@
         <v>2024</v>
       </c>
       <c r="G18" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J18" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="K18" t="n">
-        <v>-1924.189999999989</v>
+        <v>-852.8420000000006</v>
       </c>
       <c r="L18" t="n">
-        <v>-962.2599999999945</v>
+        <v>-426.4210000000003</v>
       </c>
       <c r="M18" t="n">
-        <v>8413</v>
+        <v>2925</v>
       </c>
       <c r="N18" t="n">
-        <v>-961.9299999999946</v>
+        <v>-426.4210000000003</v>
       </c>
       <c r="O18" t="n">
-        <v>-2.689999999999998</v>
+        <v>-2.969999999999999</v>
       </c>
       <c r="P18" t="n">
-        <v>15.14</v>
+        <v>10.43599999999999</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.1143385237133002</v>
+        <v>-0.1457849572649574</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5452999383899565</v>
+        <v>0.562079784383883</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.1949999999999932</v>
+        <v>-0.1699999999999946</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1962439082372519</v>
+        <v>0.1114529914529915</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1676,46 +1676,3346 @@
         <v>2024</v>
       </c>
       <c r="G19" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H19" t="n">
         <v>2.600000000000001</v>
       </c>
       <c r="I19" t="n">
+        <v>90</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-857.9580000000003</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-428.9790000000002</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2958</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-428.9790000000002</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-6.670000000000016</v>
+      </c>
+      <c r="P19" t="n">
+        <v>11.342</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.1450233265720082</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.6599202385344294</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-0.1899999999999977</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.08924949290060852</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B20" t="n">
+        <v>43</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G20" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I20" t="n">
+        <v>55</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-861.7520000000004</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-430.8760000000002</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3814</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-430.8760000000002</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-6.670000000000016</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.1129722076560042</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.6822317723120747</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-0.2100000000000009</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.1575773466177242</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G21" t="n">
+        <v>90</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-874.2340000000005</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-437.1170000000002</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3348</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-437.1170000000002</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-6.670000000000016</v>
+      </c>
+      <c r="P21" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.1305606332138591</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6725642860310986</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-0.2064999999999984</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.1412783751493429</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" t="n">
+        <v>48</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G22" t="n">
+        <v>45</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>70</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-889.5540000000017</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-444.7770000000008</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3231</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-444.7770000000008</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="P22" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.1376592386258127</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.6589603959353272</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.1900000000000048</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.09594552770040235</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B23" t="n">
+        <v>72</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G23" t="n">
+        <v>85</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>70</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-893.4939999999991</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-446.7469999999996</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2799</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-446.7469999999996</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-3.219999999999999</v>
+      </c>
+      <c r="P23" t="n">
+        <v>8.070000000000007</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.1596095033940692</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.5819224506280132</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.1600000000000037</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.04715969989281887</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B24" t="n">
+        <v>68</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G24" t="n">
+        <v>50</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-894.0569999999989</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-447.2769999999995</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3163</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-446.7799999999995</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.1412519759721781</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.705032617344173</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-0.2120000000000033</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.1005374644325008</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B25" t="n">
+        <v>82</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G25" t="n">
+        <v>65</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-900.9720000000013</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-450.4860000000007</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3011</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-450.4860000000007</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-6.670000000000016</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9.959999999999999</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.1496134174692795</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.6356235243460319</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-0.2010000000000076</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.1026237130521421</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B26" t="n">
+        <v>66</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G26" t="n">
+        <v>60</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>100</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-900.9959999999999</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-450.4979999999999</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2810</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-450.4979999999999</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-6.670000000000016</v>
+      </c>
+      <c r="P26" t="n">
+        <v>11.545</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-0.1603195729537366</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.5685426737673079</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-0.1700000000000017</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.06832740213523132</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G27" t="n">
+        <v>10</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>85</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-903.4859999999994</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-451.7429999999997</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3175</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-451.7429999999997</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-3.435000000000002</v>
+      </c>
+      <c r="P27" t="n">
+        <v>9.370999999999995</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.1422812598425196</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.6081900324229017</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-0.1999999999999957</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.1026771653543307</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B28" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G28" t="n">
+        <v>75</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I28" t="n">
+        <v>65</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-904.5440000000015</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-452.2720000000007</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2829</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-452.2720000000007</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-2.819999999999993</v>
+      </c>
+      <c r="P28" t="n">
+        <v>10.123</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-0.1598699186991873</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.650656725674905</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-0.1799999999999926</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.05372923294450336</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B29" t="n">
+        <v>80</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G29" t="n">
         <v>15</v>
       </c>
-      <c r="J19" t="n">
+      <c r="H29" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I29" t="n">
+        <v>70</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-910.0580000000002</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-455.0290000000001</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2992</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-455.0290000000001</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>7.879999999999995</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.152081885026738</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.6132423927497435</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.1805000000000021</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.06818181818181818</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G30" t="n">
+        <v>30</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I30" t="n">
+        <v>65</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-937.2520000000004</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-468.6260000000002</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3361</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-468.6260000000002</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-3.219999999999999</v>
+      </c>
+      <c r="P30" t="n">
+        <v>8.045000000000002</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-0.1394305266289795</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6258762859133268</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-0.1940000000000026</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.1005653079440643</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B31" t="n">
+        <v>45</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G31" t="n">
+        <v>85</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>95</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-941.0340000000019</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-470.517000000001</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2906</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-470.517000000001</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-2.239999999999995</v>
+      </c>
+      <c r="P31" t="n">
+        <v>6.969999999999999</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.1619122505161738</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.4703171326962251</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.1730000000000018</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.1001376462491397</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B32" t="n">
+        <v>42</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G32" t="n">
+        <v>60</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>90</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-943.0940000000015</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-471.5470000000008</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2594</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-471.5470000000008</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-3.219999999999999</v>
+      </c>
+      <c r="P32" t="n">
+        <v>12.044</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-0.1817837316885123</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.4972185378218435</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-0.1499999999999986</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.02544333076329992</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B33" t="n">
+        <v>55</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G33" t="n">
+        <v>55</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I33" t="n">
+        <v>100</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-946.028000000006</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-473.014000000003</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2917</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-473.014000000003</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-2.239999999999995</v>
+      </c>
+      <c r="P33" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-0.1621576962632852</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.4539787876277343</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.05382242029482345</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>40</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G34" t="n">
+        <v>60</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>90</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-946.7720000000005</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-473.3860000000003</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2594</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-473.3860000000003</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-3.219999999999999</v>
+      </c>
+      <c r="P34" t="n">
+        <v>12.044</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.1824926754047804</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.4597810121869216</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.1394999999999982</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.01503469545104086</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B35" t="n">
+        <v>13</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G35" t="n">
+        <v>55</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-952.222999999997</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-476.3309999999985</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3013</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-475.8919999999985</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-3.720000000000013</v>
+      </c>
+      <c r="P35" t="n">
+        <v>9.132000000000005</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-0.1579462329903745</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.6654732543611936</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.1510122801194823</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B36" t="n">
+        <v>78</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G36" t="n">
+        <v>20</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>55</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-981.1419999999995</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-490.5709999999997</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3539</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-490.5709999999997</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="P36" t="n">
+        <v>14.271</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-0.1386185363096919</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.6475913127447547</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-0.1900000000000048</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.1045493077140435</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B37" t="n">
+        <v>14</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G37" t="n">
+        <v>85</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>30</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-987.8600000000006</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-495.4530000000004</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4570</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-492.4070000000003</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="P37" t="n">
+        <v>14.271</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-0.1077477024070023</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.7752866826436886</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-0.2399999999999949</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.1603938730853392</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B38" t="n">
+        <v>73</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G38" t="n">
+        <v>45</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>90</v>
+      </c>
+      <c r="J38" t="n">
         <v>0.06</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K38" t="n">
+        <v>-1020.486000000003</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-510.2430000000016</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3027</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-510.2430000000016</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-2.239999999999995</v>
+      </c>
+      <c r="P38" t="n">
+        <v>7.460000000000008</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-0.1685639246778995</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.3874850408487928</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-0.1499999999999986</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.06871489924017178</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B39" t="n">
+        <v>77</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G39" t="n">
+        <v>100</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>75</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-1025.556000000003</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-512.7780000000014</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3380</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-512.7780000000014</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-6.670000000000016</v>
+      </c>
+      <c r="P39" t="n">
+        <v>8.180000000000007</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-0.1517094674556217</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.5303628808781079</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-0.1700000000000017</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.1062130177514793</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B40" t="n">
+        <v>51</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G40" t="n">
+        <v>65</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>75</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-1029.680000000003</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-514.8400000000015</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3443</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-514.8400000000015</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-2.239999999999995</v>
+      </c>
+      <c r="P40" t="n">
+        <v>11.336</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-0.1495323845483594</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.5258215604460257</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-0.1600000000000037</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.09526575660760964</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>47</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G41" t="n">
+        <v>95</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I41" t="n">
+        <v>85</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-1029.870000000003</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-514.9350000000014</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3036</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-514.9350000000014</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-6.670000000000016</v>
+      </c>
+      <c r="P41" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-0.1696096837944669</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.4773677829059619</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.03359683794466403</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G42" t="n">
+        <v>75</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>50</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-1031.883999999999</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-515.9419999999996</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3062</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-515.9419999999996</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>10.465</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-0.1684983670803395</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.591030242636742</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-0.1700000000000017</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.04474199869366427</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B43" t="n">
+        <v>18</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G43" t="n">
+        <v>25</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>90</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-1040.308000000003</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-520.1540000000016</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3125</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-520.1540000000016</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-2.969999999999999</v>
+      </c>
+      <c r="P43" t="n">
+        <v>7.460000000000008</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-0.1664492800000005</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.3752586347407367</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.05856</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B44" t="n">
+        <v>41</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>75</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-1046.916000000001</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-523.4580000000005</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3539</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-523.4580000000005</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-3.435000000000002</v>
+      </c>
+      <c r="P44" t="n">
+        <v>9.566999999999993</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-0.1479112743712915</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.5221288281438855</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-0.1599999999999966</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.1025713478383724</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G45" t="n">
+        <v>45</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>80</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-1050.400000000003</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-525.2000000000014</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3101</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-525.2000000000014</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="P45" t="n">
+        <v>9.459999999999999</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-0.1693647210577238</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.4167166755114336</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-0.1300000000000026</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.0199935504675911</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B46" t="n">
+        <v>35</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G46" t="n">
+        <v>25</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>65</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1068.416000000002</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-534.2080000000012</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3341</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-534.2080000000012</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-2.819999999999993</v>
+      </c>
+      <c r="P46" t="n">
+        <v>8.045000000000002</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-0.1598946423226583</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.5033392073459314</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-0.1430000000000007</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.04429811433702485</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G47" t="n">
+        <v>25</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>85</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1078.664000000002</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-539.3320000000008</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3249</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-539.3320000000008</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-2.969999999999999</v>
+      </c>
+      <c r="P47" t="n">
+        <v>8.180000000000007</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-0.1659993844259775</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.3812111435673448</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.05878731917513081</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B48" t="n">
+        <v>67</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G48" t="n">
+        <v>70</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>30</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-1111.780000000001</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-558.0750000000004</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4594</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-553.7050000000004</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="P48" t="n">
+        <v>14.96100000000001</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.1205278624292556</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.732995911218323</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.1419242490204615</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B49" t="n">
+        <v>17</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G49" t="n">
+        <v>75</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>60</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-1129.596000000007</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-564.7980000000034</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3711</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-564.7980000000034</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-2.239999999999995</v>
+      </c>
+      <c r="P49" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.1521956345998392</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.5101376785565561</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.1599999999999966</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.09161950956615468</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B50" t="n">
+        <v>26</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G50" t="n">
+        <v>45</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>65</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-1131.817999999999</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-565.9089999999994</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3327</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-565.9089999999994</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="P50" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.1700958821761345</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.4212633112450429</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.1300000000000026</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.02013826269912834</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B51" t="n">
+        <v>57</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G51" t="n">
+        <v>90</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>80</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-1155.180000000001</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-577.5900000000007</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3247</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-577.5900000000007</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-6.670000000000016</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5.789999999999992</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.1778842008007394</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.3377123297047152</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.1300000000000097</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.03356944872189713</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B52" t="n">
+        <v>61</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G52" t="n">
+        <v>50</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-1162.350000000002</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-581.455000000001</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2993</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-580.895000000001</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-3.370000000000005</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5.569000000000003</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.1940845305713335</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.5042272508360907</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.1700000000000017</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.07885065152021384</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B53" t="n">
+        <v>46</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G53" t="n">
+        <v>60</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>25</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1226.537999999999</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-613.7879999999994</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5805</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-612.7499999999995</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-6.670000000000016</v>
+      </c>
+      <c r="P53" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-0.1055555555555555</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.6502562713959842</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-0.2199999999999989</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.1910422049956934</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B54" t="n">
+        <v>24</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G54" t="n">
+        <v>10</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I54" t="n">
+        <v>40</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-1283.490999999999</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-642.4109999999995</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4383</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-641.0799999999995</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="P54" t="n">
+        <v>12.901</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1462651152178872</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.6286111280018849</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1799999999999997</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.08829568788501027</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B55" t="n">
+        <v>38</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G55" t="n">
+        <v>25</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I55" t="n">
+        <v>40</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1348.434</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-674.2170000000001</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4193</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-674.2170000000001</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="P55" t="n">
+        <v>7.253</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-0.1607958502265681</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.5635017062674463</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-0.1749999999999972</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.08013355592654424</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B56" t="n">
+        <v>52</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G56" t="n">
+        <v>35</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I56" t="n">
+        <v>10</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-1366.410000000001</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-683.2050000000007</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5350</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-683.2050000000007</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="P56" t="n">
+        <v>14.271</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.1277018691588786</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.6937465272094685</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.2469999999999999</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.1962616822429906</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>69</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G57" t="n">
+        <v>15</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I57" t="n">
+        <v>45</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-1382.251999999999</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-691.1259999999995</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3957</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-691.1259999999995</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-6.554999999999993</v>
+      </c>
+      <c r="P57" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.1746590851655293</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.4442336710417273</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.1350000000000051</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.02426080363912055</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B58" t="n">
+        <v>11</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G58" t="n">
+        <v>60</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I58" t="n">
+        <v>15</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1439.423000000004</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-721.0780000000021</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5310</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-718.3450000000022</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-3.109999999999999</v>
+      </c>
+      <c r="P58" t="n">
+        <v>14.96100000000001</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-0.1352815442561209</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.6859197712540722</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-0.230000000000004</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.1621468926553672</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B59" t="n">
+        <v>15</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G59" t="n">
+        <v>15</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I59" t="n">
+        <v>35</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-1464.251000000006</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-732.7100000000031</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4474</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-731.5410000000032</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="P59" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.1635093875726427</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.5167960150465754</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.1580000000000013</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.05766651765757711</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B60" t="n">
+        <v>12</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G60" t="n">
+        <v>65</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I60" t="n">
+        <v>40</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-1500.977999999999</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-750.4889999999996</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4070</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-750.4889999999996</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="P60" t="n">
+        <v>6.198000000000008</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.1843953316953316</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.4429523329498066</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.1550000000000011</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.04201474201474201</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B61" t="n">
+        <v>54</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G61" t="n">
+        <v>25</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>40</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-1507.171999999996</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-753.5859999999979</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4193</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-753.5859999999979</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="P61" t="n">
+        <v>6.828000000000003</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-0.179724779394228</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.445249779540248</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-0.1430000000000007</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.02599570713093251</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B62" t="n">
+        <v>53</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G62" t="n">
+        <v>15</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I62" t="n">
+        <v>35</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1508.347999999995</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-754.6509999999973</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3725</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-753.6969999999974</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="P62" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-0.2023347651006704</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.3710786792411563</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-0.1500000000000057</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.01718120805369127</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B63" t="n">
+        <v>56</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G63" t="n">
+        <v>90</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>45</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-1516.405999999998</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-758.2029999999992</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4182</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-758.2029999999992</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-6.670000000000016</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5.600999999999999</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.1813015303682447</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.3266956826325422</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.1300000000000097</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.03610712577714013</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G64" t="n">
+        <v>35</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I64" t="n">
+        <v>30</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-1595.140999999999</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-798.2509999999996</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5368</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-796.8899999999998</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-6.554999999999993</v>
+      </c>
+      <c r="P64" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.1484519374068554</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.5391778576875523</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.1740000000000066</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.1238822652757079</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B65" t="n">
+        <v>32</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G65" t="n">
+        <v>45</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I65" t="n">
+        <v>20</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-1903.878000000001</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-952.1240000000007</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5190</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-951.7540000000006</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-2.805999999999997</v>
+      </c>
+      <c r="P65" t="n">
+        <v>7.390999999999991</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.183382273603083</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.4187579923763022</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.1550000000000011</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.04836223506743738</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B66" t="n">
+        <v>10</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G66" t="n">
+        <v>45</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-1924.189999999989</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-962.2599999999945</v>
+      </c>
+      <c r="M66" t="n">
+        <v>8413</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-961.9299999999946</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="P66" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.1143385237133002</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.5452999383899565</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.1949999999999932</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.1962439082372519</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B67" t="n">
+        <v>7</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G67" t="n">
+        <v>30</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I67" t="n">
+        <v>15</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K67" t="n">
         <v>-1936.782</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L67" t="n">
         <v>-968.391</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M67" t="n">
         <v>5483</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N67" t="n">
         <v>-968.391</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O67" t="n">
         <v>-2.736000000000004</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P67" t="n">
         <v>6.784999999999997</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q67" t="n">
         <v>-0.176616997993799</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R67" t="n">
         <v>0.449030682310228</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S67" t="n">
         <v>-0.1650000000000063</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T67" t="n">
         <v>0.06930512493160679</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B68" t="n">
+        <v>27</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G68" t="n">
+        <v>100</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I68" t="n">
+        <v>20</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-2110.059</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-1055.259</v>
+      </c>
+      <c r="M68" t="n">
+        <v>6411</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-1054.8</v>
+      </c>
+      <c r="O68" t="n">
+        <v>-6.670000000000016</v>
+      </c>
+      <c r="P68" t="n">
+        <v>12.86600000000001</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>-0.1645297145531118</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.4250747219933302</v>
+      </c>
+      <c r="S68" t="n">
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.06442052721884262</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B69" t="n">
+        <v>62</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>M30</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="G69" t="n">
+        <v>10</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-2111.001</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-1055.652</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5667</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-1055.349</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-3.239999999999995</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5.445000000000007</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>-0.1862271042879831</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.3764280015612692</v>
+      </c>
+      <c r="S69" t="n">
+        <v>-0.152000000000001</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.07199576495500265</v>
       </c>
     </row>
   </sheetData>
